--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +98,6 @@
   </si>
   <si>
     <t>Tnfrsf10b</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0135014628046732</v>
+        <v>0.018885</v>
       </c>
       <c r="H2">
-        <v>0.0135014628046732</v>
+        <v>0.056655</v>
       </c>
       <c r="I2">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="J2">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.30576633262227</v>
+        <v>9.406579333333333</v>
       </c>
       <c r="N2">
-        <v>6.30576633262227</v>
+        <v>28.219738</v>
       </c>
       <c r="O2">
-        <v>0.4541792586947799</v>
+        <v>0.5338425959005011</v>
       </c>
       <c r="P2">
-        <v>0.4541792586947799</v>
+        <v>0.5338425959005011</v>
       </c>
       <c r="Q2">
-        <v>0.08513706959486012</v>
+        <v>0.17764325071</v>
       </c>
       <c r="R2">
-        <v>0.08513706959486012</v>
+        <v>1.59878925639</v>
       </c>
       <c r="S2">
-        <v>0.01993451656889761</v>
+        <v>0.01875436912942152</v>
       </c>
       <c r="T2">
-        <v>0.01993451656889761</v>
+        <v>0.01875436912942152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0135014628046732</v>
+        <v>0.018885</v>
       </c>
       <c r="H3">
-        <v>0.0135014628046732</v>
+        <v>0.056655</v>
       </c>
       <c r="I3">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="J3">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.36147723689372</v>
+        <v>5.394797999999999</v>
       </c>
       <c r="N3">
-        <v>5.36147723689372</v>
+        <v>16.184394</v>
       </c>
       <c r="O3">
-        <v>0.386165872395829</v>
+        <v>0.3061658086987375</v>
       </c>
       <c r="P3">
-        <v>0.386165872395829</v>
+        <v>0.3061658086987375</v>
       </c>
       <c r="Q3">
-        <v>0.0723877854920226</v>
+        <v>0.10188076023</v>
       </c>
       <c r="R3">
-        <v>0.0723877854920226</v>
+        <v>0.9169268420699999</v>
       </c>
       <c r="S3">
-        <v>0.01694932085569043</v>
+        <v>0.01075587942070883</v>
       </c>
       <c r="T3">
-        <v>0.01694932085569043</v>
+        <v>0.01075587942070883</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0135014628046732</v>
+        <v>0.018885</v>
       </c>
       <c r="H4">
-        <v>0.0135014628046732</v>
+        <v>0.056655</v>
       </c>
       <c r="I4">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="J4">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.32728002541288</v>
+        <v>0.08490933333333334</v>
       </c>
       <c r="N4">
-        <v>0.32728002541288</v>
+        <v>0.254728</v>
       </c>
       <c r="O4">
-        <v>0.02357267800404152</v>
+        <v>0.004818778146294018</v>
       </c>
       <c r="P4">
-        <v>0.02357267800404152</v>
+        <v>0.004818778146294018</v>
       </c>
       <c r="Q4">
-        <v>0.004418759089824499</v>
+        <v>0.00160351276</v>
       </c>
       <c r="R4">
-        <v>0.004418759089824499</v>
+        <v>0.01443161484</v>
       </c>
       <c r="S4">
-        <v>0.001034635402759872</v>
+        <v>0.0001692879976277344</v>
       </c>
       <c r="T4">
-        <v>0.001034635402759872</v>
+        <v>0.0001692879976277344</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0135014628046732</v>
+        <v>0.018885</v>
       </c>
       <c r="H5">
-        <v>0.0135014628046732</v>
+        <v>0.056655</v>
       </c>
       <c r="I5">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="J5">
-        <v>0.04389129663513348</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.88934761210022</v>
+        <v>0.4642293333333333</v>
       </c>
       <c r="N5">
-        <v>1.88934761210022</v>
+        <v>1.392688</v>
       </c>
       <c r="O5">
-        <v>0.1360821909053496</v>
+        <v>0.02634596314109922</v>
       </c>
       <c r="P5">
-        <v>0.1360821909053496</v>
+        <v>0.02634596314109922</v>
       </c>
       <c r="Q5">
-        <v>0.02550895650986925</v>
+        <v>0.008766970959999999</v>
       </c>
       <c r="R5">
-        <v>0.02550895650986925</v>
+        <v>0.07890273864</v>
       </c>
       <c r="S5">
-        <v>0.005972823807785565</v>
+        <v>0.0009255573114858757</v>
       </c>
       <c r="T5">
-        <v>0.005972823807785565</v>
+        <v>0.0009255573114858756</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.165837508187592</v>
+        <v>0.018885</v>
       </c>
       <c r="H6">
-        <v>0.165837508187592</v>
+        <v>0.056655</v>
       </c>
       <c r="I6">
-        <v>0.5391136775619298</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="J6">
-        <v>0.5391136775619298</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.30576633262227</v>
+        <v>0.3736923333333333</v>
       </c>
       <c r="N6">
-        <v>6.30576633262227</v>
+        <v>1.121077</v>
       </c>
       <c r="O6">
-        <v>0.4541792586947799</v>
+        <v>0.02120780341349541</v>
       </c>
       <c r="P6">
-        <v>0.4541792586947799</v>
+        <v>0.02120780341349541</v>
       </c>
       <c r="Q6">
-        <v>1.045732575815288</v>
+        <v>0.007057179715</v>
       </c>
       <c r="R6">
-        <v>1.045732575815288</v>
+        <v>0.063514617435</v>
       </c>
       <c r="S6">
-        <v>0.2448542504272939</v>
+        <v>0.0007450491524940626</v>
       </c>
       <c r="T6">
-        <v>0.2448542504272939</v>
+        <v>0.0007450491524940626</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.165837508187592</v>
+        <v>0.018885</v>
       </c>
       <c r="H7">
-        <v>0.165837508187592</v>
+        <v>0.056655</v>
       </c>
       <c r="I7">
-        <v>0.5391136775619298</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="J7">
-        <v>0.5391136775619298</v>
+        <v>0.03513089677264534</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.36147723689372</v>
+        <v>1.896302666666666</v>
       </c>
       <c r="N7">
-        <v>5.36147723689372</v>
+        <v>5.688908</v>
       </c>
       <c r="O7">
-        <v>0.386165872395829</v>
+        <v>0.1076190506998728</v>
       </c>
       <c r="P7">
-        <v>0.386165872395829</v>
+        <v>0.1076190506998728</v>
       </c>
       <c r="Q7">
-        <v>0.8891340251709503</v>
+        <v>0.03581167586</v>
       </c>
       <c r="R7">
-        <v>0.8891340251709503</v>
+        <v>0.32230508274</v>
       </c>
       <c r="S7">
-        <v>0.2081873036162263</v>
+        <v>0.003780753760907317</v>
       </c>
       <c r="T7">
-        <v>0.2081873036162263</v>
+        <v>0.003780753760907317</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.165837508187592</v>
+        <v>0.166264</v>
       </c>
       <c r="H8">
-        <v>0.165837508187592</v>
+        <v>0.498792</v>
       </c>
       <c r="I8">
-        <v>0.5391136775619298</v>
+        <v>0.3092932709032091</v>
       </c>
       <c r="J8">
-        <v>0.5391136775619298</v>
+        <v>0.3092932709032092</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.32728002541288</v>
+        <v>9.406579333333333</v>
       </c>
       <c r="N8">
-        <v>0.32728002541288</v>
+        <v>28.219738</v>
       </c>
       <c r="O8">
-        <v>0.02357267800404152</v>
+        <v>0.5338425959005011</v>
       </c>
       <c r="P8">
-        <v>0.02357267800404152</v>
+        <v>0.5338425959005011</v>
       </c>
       <c r="Q8">
-        <v>0.0542753038940438</v>
+        <v>1.563975506277333</v>
       </c>
       <c r="R8">
-        <v>0.0542753038940438</v>
+        <v>14.075779556496</v>
       </c>
       <c r="S8">
-        <v>0.01270835312874203</v>
+        <v>0.1651139226335261</v>
       </c>
       <c r="T8">
-        <v>0.01270835312874203</v>
+        <v>0.1651139226335261</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,309 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.165837508187592</v>
+        <v>0.166264</v>
       </c>
       <c r="H9">
-        <v>0.165837508187592</v>
+        <v>0.498792</v>
       </c>
       <c r="I9">
-        <v>0.5391136775619298</v>
+        <v>0.3092932709032091</v>
       </c>
       <c r="J9">
-        <v>0.5391136775619298</v>
+        <v>0.3092932709032092</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.88934761210022</v>
+        <v>5.394797999999999</v>
       </c>
       <c r="N9">
-        <v>1.88934761210022</v>
+        <v>16.184394</v>
       </c>
       <c r="O9">
-        <v>0.1360821909053496</v>
+        <v>0.3061658086987375</v>
       </c>
       <c r="P9">
-        <v>0.1360821909053496</v>
+        <v>0.3061658086987375</v>
       </c>
       <c r="Q9">
-        <v>0.3133247000908776</v>
+        <v>0.8969606946719998</v>
       </c>
       <c r="R9">
-        <v>0.3133247000908776</v>
+        <v>8.072646252047999</v>
       </c>
       <c r="S9">
-        <v>0.07336377038966765</v>
+        <v>0.09469502441115872</v>
       </c>
       <c r="T9">
-        <v>0.07336377038966765</v>
+        <v>0.09469502441115873</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.128272419869807</v>
+        <v>0.166264</v>
       </c>
       <c r="H10">
-        <v>0.128272419869807</v>
+        <v>0.498792</v>
       </c>
       <c r="I10">
-        <v>0.4169950258029365</v>
+        <v>0.3092932709032091</v>
       </c>
       <c r="J10">
-        <v>0.4169950258029365</v>
+        <v>0.3092932709032092</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>6.30576633262227</v>
+        <v>0.08490933333333334</v>
       </c>
       <c r="N10">
-        <v>6.30576633262227</v>
+        <v>0.254728</v>
       </c>
       <c r="O10">
-        <v>0.4541792586947799</v>
+        <v>0.004818778146294018</v>
       </c>
       <c r="P10">
-        <v>0.4541792586947799</v>
+        <v>0.004818778146294018</v>
       </c>
       <c r="Q10">
-        <v>0.808855906619017</v>
+        <v>0.01411736539733333</v>
       </c>
       <c r="R10">
-        <v>0.808855906619017</v>
+        <v>0.127056288576</v>
       </c>
       <c r="S10">
-        <v>0.1893904916985883</v>
+        <v>0.00149041565462418</v>
       </c>
       <c r="T10">
-        <v>0.1893904916985883</v>
+        <v>0.00149041565462418</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.128272419869807</v>
+        <v>0.166264</v>
       </c>
       <c r="H11">
-        <v>0.128272419869807</v>
+        <v>0.498792</v>
       </c>
       <c r="I11">
-        <v>0.4169950258029365</v>
+        <v>0.3092932709032091</v>
       </c>
       <c r="J11">
-        <v>0.4169950258029365</v>
+        <v>0.3092932709032092</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>5.36147723689372</v>
+        <v>0.4642293333333333</v>
       </c>
       <c r="N11">
-        <v>5.36147723689372</v>
+        <v>1.392688</v>
       </c>
       <c r="O11">
-        <v>0.386165872395829</v>
+        <v>0.02634596314109922</v>
       </c>
       <c r="P11">
-        <v>0.386165872395829</v>
+        <v>0.02634596314109922</v>
       </c>
       <c r="Q11">
-        <v>0.6877296592532439</v>
+        <v>0.07718462587733332</v>
       </c>
       <c r="R11">
-        <v>0.6877296592532439</v>
+        <v>0.694661632896</v>
       </c>
       <c r="S11">
-        <v>0.1610292479239122</v>
+        <v>0.008148629115005964</v>
       </c>
       <c r="T11">
-        <v>0.1610292479239122</v>
+        <v>0.008148629115005964</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.128272419869807</v>
+        <v>0.166264</v>
       </c>
       <c r="H12">
-        <v>0.128272419869807</v>
+        <v>0.498792</v>
       </c>
       <c r="I12">
-        <v>0.4169950258029365</v>
+        <v>0.3092932709032091</v>
       </c>
       <c r="J12">
-        <v>0.4169950258029365</v>
+        <v>0.3092932709032092</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.32728002541288</v>
+        <v>0.3736923333333333</v>
       </c>
       <c r="N12">
-        <v>0.32728002541288</v>
+        <v>1.121077</v>
       </c>
       <c r="O12">
-        <v>0.02357267800404152</v>
+        <v>0.02120780341349541</v>
       </c>
       <c r="P12">
-        <v>0.02357267800404152</v>
+        <v>0.02120780341349541</v>
       </c>
       <c r="Q12">
-        <v>0.04198100083476205</v>
+        <v>0.06213158210933333</v>
       </c>
       <c r="R12">
-        <v>0.04198100083476205</v>
+        <v>0.559184238984</v>
       </c>
       <c r="S12">
-        <v>0.009829689472539605</v>
+        <v>0.006559430886432239</v>
       </c>
       <c r="T12">
-        <v>0.009829689472539605</v>
+        <v>0.00655943088643224</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.166264</v>
+      </c>
+      <c r="H13">
+        <v>0.498792</v>
+      </c>
+      <c r="I13">
+        <v>0.3092932709032091</v>
+      </c>
+      <c r="J13">
+        <v>0.3092932709032092</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.896302666666666</v>
+      </c>
+      <c r="N13">
+        <v>5.688908</v>
+      </c>
+      <c r="O13">
+        <v>0.1076190506998728</v>
+      </c>
+      <c r="P13">
+        <v>0.1076190506998728</v>
+      </c>
+      <c r="Q13">
+        <v>0.3152868665706666</v>
+      </c>
+      <c r="R13">
+        <v>2.837581799136</v>
+      </c>
+      <c r="S13">
+        <v>0.03328584820246196</v>
+      </c>
+      <c r="T13">
+        <v>0.03328584820246197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.109935</v>
+      </c>
+      <c r="H14">
+        <v>0.329805</v>
+      </c>
+      <c r="I14">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="J14">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>9.406579333333333</v>
+      </c>
+      <c r="N14">
+        <v>28.219738</v>
+      </c>
+      <c r="O14">
+        <v>0.5338425959005011</v>
+      </c>
+      <c r="P14">
+        <v>0.5338425959005011</v>
+      </c>
+      <c r="Q14">
+        <v>1.03411229901</v>
+      </c>
+      <c r="R14">
+        <v>9.307010691089999</v>
+      </c>
+      <c r="S14">
+        <v>0.1091745602458541</v>
+      </c>
+      <c r="T14">
+        <v>0.1091745602458541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.109935</v>
+      </c>
+      <c r="H15">
+        <v>0.329805</v>
+      </c>
+      <c r="I15">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="J15">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.394797999999999</v>
+      </c>
+      <c r="N15">
+        <v>16.184394</v>
+      </c>
+      <c r="O15">
+        <v>0.3061658086987375</v>
+      </c>
+      <c r="P15">
+        <v>0.3061658086987375</v>
+      </c>
+      <c r="Q15">
+        <v>0.5930771181299999</v>
+      </c>
+      <c r="R15">
+        <v>5.33769406317</v>
+      </c>
+      <c r="S15">
+        <v>0.06261305820045672</v>
+      </c>
+      <c r="T15">
+        <v>0.06261305820045672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.109935</v>
+      </c>
+      <c r="H16">
+        <v>0.329805</v>
+      </c>
+      <c r="I16">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="J16">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.08490933333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.254728</v>
+      </c>
+      <c r="O16">
+        <v>0.004818778146294018</v>
+      </c>
+      <c r="P16">
+        <v>0.004818778146294018</v>
+      </c>
+      <c r="Q16">
+        <v>0.00933450756</v>
+      </c>
+      <c r="R16">
+        <v>0.08401056804000001</v>
+      </c>
+      <c r="S16">
+        <v>0.0009854739750704254</v>
+      </c>
+      <c r="T16">
+        <v>0.0009854739750704254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.109935</v>
+      </c>
+      <c r="H17">
+        <v>0.329805</v>
+      </c>
+      <c r="I17">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="J17">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.4642293333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.392688</v>
+      </c>
+      <c r="O17">
+        <v>0.02634596314109922</v>
+      </c>
+      <c r="P17">
+        <v>0.02634596314109922</v>
+      </c>
+      <c r="Q17">
+        <v>0.05103505176</v>
+      </c>
+      <c r="R17">
+        <v>0.45931546584</v>
+      </c>
+      <c r="S17">
+        <v>0.005387934500301814</v>
+      </c>
+      <c r="T17">
+        <v>0.005387934500301813</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.109935</v>
+      </c>
+      <c r="H18">
+        <v>0.329805</v>
+      </c>
+      <c r="I18">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="J18">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.3736923333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.121077</v>
+      </c>
+      <c r="O18">
+        <v>0.02120780341349541</v>
+      </c>
+      <c r="P18">
+        <v>0.02120780341349541</v>
+      </c>
+      <c r="Q18">
+        <v>0.041081866665</v>
+      </c>
+      <c r="R18">
+        <v>0.369736799985</v>
+      </c>
+      <c r="S18">
+        <v>0.004337144748712459</v>
+      </c>
+      <c r="T18">
+        <v>0.004337144748712459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.128272419869807</v>
-      </c>
-      <c r="H13">
-        <v>0.128272419869807</v>
-      </c>
-      <c r="I13">
-        <v>0.4169950258029365</v>
-      </c>
-      <c r="J13">
-        <v>0.4169950258029365</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.88934761210022</v>
-      </c>
-      <c r="N13">
-        <v>1.88934761210022</v>
-      </c>
-      <c r="O13">
-        <v>0.1360821909053496</v>
-      </c>
-      <c r="P13">
-        <v>0.1360821909053496</v>
-      </c>
-      <c r="Q13">
-        <v>0.2423511901793367</v>
-      </c>
-      <c r="R13">
-        <v>0.2423511901793367</v>
-      </c>
-      <c r="S13">
-        <v>0.05674559670789641</v>
-      </c>
-      <c r="T13">
-        <v>0.05674559670789641</v>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.109935</v>
+      </c>
+      <c r="H19">
+        <v>0.329805</v>
+      </c>
+      <c r="I19">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="J19">
+        <v>0.2045070233889736</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.896302666666666</v>
+      </c>
+      <c r="N19">
+        <v>5.688908</v>
+      </c>
+      <c r="O19">
+        <v>0.1076190506998728</v>
+      </c>
+      <c r="P19">
+        <v>0.1076190506998728</v>
+      </c>
+      <c r="Q19">
+        <v>0.20847003366</v>
+      </c>
+      <c r="R19">
+        <v>1.87623030294</v>
+      </c>
+      <c r="S19">
+        <v>0.02200885171857802</v>
+      </c>
+      <c r="T19">
+        <v>0.02200885171857802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.07872333333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.23617</v>
+      </c>
+      <c r="I20">
+        <v>0.1464453956543226</v>
+      </c>
+      <c r="J20">
+        <v>0.1464453956543227</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>9.406579333333333</v>
+      </c>
+      <c r="N20">
+        <v>28.219738</v>
+      </c>
+      <c r="O20">
+        <v>0.5338425959005011</v>
+      </c>
+      <c r="P20">
+        <v>0.5338425959005011</v>
+      </c>
+      <c r="Q20">
+        <v>0.7405172803844443</v>
+      </c>
+      <c r="R20">
+        <v>6.66465552346</v>
+      </c>
+      <c r="S20">
+        <v>0.07817879017377956</v>
+      </c>
+      <c r="T20">
+        <v>0.07817879017377957</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.07872333333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.23617</v>
+      </c>
+      <c r="I21">
+        <v>0.1464453956543226</v>
+      </c>
+      <c r="J21">
+        <v>0.1464453956543227</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.394797999999999</v>
+      </c>
+      <c r="N21">
+        <v>16.184394</v>
+      </c>
+      <c r="O21">
+        <v>0.3061658086987375</v>
+      </c>
+      <c r="P21">
+        <v>0.3061658086987375</v>
+      </c>
+      <c r="Q21">
+        <v>0.4246964812199999</v>
+      </c>
+      <c r="R21">
+        <v>3.822268330979999</v>
+      </c>
+      <c r="S21">
+        <v>0.04483657299071227</v>
+      </c>
+      <c r="T21">
+        <v>0.04483657299071227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.07872333333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.23617</v>
+      </c>
+      <c r="I22">
+        <v>0.1464453956543226</v>
+      </c>
+      <c r="J22">
+        <v>0.1464453956543227</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.08490933333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.254728</v>
+      </c>
+      <c r="O22">
+        <v>0.004818778146294018</v>
+      </c>
+      <c r="P22">
+        <v>0.004818778146294018</v>
+      </c>
+      <c r="Q22">
+        <v>0.00668434575111111</v>
+      </c>
+      <c r="R22">
+        <v>0.06015911176</v>
+      </c>
+      <c r="S22">
+        <v>0.0007056878722044308</v>
+      </c>
+      <c r="T22">
+        <v>0.0007056878722044309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.07872333333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.23617</v>
+      </c>
+      <c r="I23">
+        <v>0.1464453956543226</v>
+      </c>
+      <c r="J23">
+        <v>0.1464453956543227</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.4642293333333333</v>
+      </c>
+      <c r="N23">
+        <v>1.392688</v>
+      </c>
+      <c r="O23">
+        <v>0.02634596314109922</v>
+      </c>
+      <c r="P23">
+        <v>0.02634596314109922</v>
+      </c>
+      <c r="Q23">
+        <v>0.03654568055111111</v>
+      </c>
+      <c r="R23">
+        <v>0.32891112496</v>
+      </c>
+      <c r="S23">
+        <v>0.003858244996092476</v>
+      </c>
+      <c r="T23">
+        <v>0.003858244996092477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.07872333333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.23617</v>
+      </c>
+      <c r="I24">
+        <v>0.1464453956543226</v>
+      </c>
+      <c r="J24">
+        <v>0.1464453956543227</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.3736923333333333</v>
+      </c>
+      <c r="N24">
+        <v>1.121077</v>
+      </c>
+      <c r="O24">
+        <v>0.02120780341349541</v>
+      </c>
+      <c r="P24">
+        <v>0.02120780341349541</v>
+      </c>
+      <c r="Q24">
+        <v>0.02941830612111111</v>
+      </c>
+      <c r="R24">
+        <v>0.26476475509</v>
+      </c>
+      <c r="S24">
+        <v>0.003105785161848429</v>
+      </c>
+      <c r="T24">
+        <v>0.00310578516184843</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.07872333333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.23617</v>
+      </c>
+      <c r="I25">
+        <v>0.1464453956543226</v>
+      </c>
+      <c r="J25">
+        <v>0.1464453956543227</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.896302666666666</v>
+      </c>
+      <c r="N25">
+        <v>5.688908</v>
+      </c>
+      <c r="O25">
+        <v>0.1076190506998728</v>
+      </c>
+      <c r="P25">
+        <v>0.1076190506998728</v>
+      </c>
+      <c r="Q25">
+        <v>0.1492832669288889</v>
+      </c>
+      <c r="R25">
+        <v>1.34354940236</v>
+      </c>
+      <c r="S25">
+        <v>0.01576031445968548</v>
+      </c>
+      <c r="T25">
+        <v>0.01576031445968549</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.01327133333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.039814</v>
+      </c>
+      <c r="I26">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="J26">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>9.406579333333333</v>
+      </c>
+      <c r="N26">
+        <v>28.219738</v>
+      </c>
+      <c r="O26">
+        <v>0.5338425959005011</v>
+      </c>
+      <c r="P26">
+        <v>0.5338425959005011</v>
+      </c>
+      <c r="Q26">
+        <v>0.1248378498591111</v>
+      </c>
+      <c r="R26">
+        <v>1.123540648732</v>
+      </c>
+      <c r="S26">
+        <v>0.01317953318363408</v>
+      </c>
+      <c r="T26">
+        <v>0.01317953318363408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.01327133333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.039814</v>
+      </c>
+      <c r="I27">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="J27">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>5.394797999999999</v>
+      </c>
+      <c r="N27">
+        <v>16.184394</v>
+      </c>
+      <c r="O27">
+        <v>0.3061658086987375</v>
+      </c>
+      <c r="P27">
+        <v>0.3061658086987375</v>
+      </c>
+      <c r="Q27">
+        <v>0.07159616252399999</v>
+      </c>
+      <c r="R27">
+        <v>0.6443654627159999</v>
+      </c>
+      <c r="S27">
+        <v>0.007558637070975224</v>
+      </c>
+      <c r="T27">
+        <v>0.007558637070975224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.01327133333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.039814</v>
+      </c>
+      <c r="I28">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="J28">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.08490933333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.254728</v>
+      </c>
+      <c r="O28">
+        <v>0.004818778146294018</v>
+      </c>
+      <c r="P28">
+        <v>0.004818778146294018</v>
+      </c>
+      <c r="Q28">
+        <v>0.001126860065777778</v>
+      </c>
+      <c r="R28">
+        <v>0.010141740592</v>
+      </c>
+      <c r="S28">
+        <v>0.0001189662401826956</v>
+      </c>
+      <c r="T28">
+        <v>0.0001189662401826956</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.01327133333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.039814</v>
+      </c>
+      <c r="I29">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="J29">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.4642293333333333</v>
+      </c>
+      <c r="N29">
+        <v>1.392688</v>
+      </c>
+      <c r="O29">
+        <v>0.02634596314109922</v>
+      </c>
+      <c r="P29">
+        <v>0.02634596314109922</v>
+      </c>
+      <c r="Q29">
+        <v>0.006160942225777778</v>
+      </c>
+      <c r="R29">
+        <v>0.055448480032</v>
+      </c>
+      <c r="S29">
+        <v>0.0006504304792074602</v>
+      </c>
+      <c r="T29">
+        <v>0.0006504304792074602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.01327133333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.039814</v>
+      </c>
+      <c r="I30">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="J30">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.3736923333333333</v>
+      </c>
+      <c r="N30">
+        <v>1.121077</v>
+      </c>
+      <c r="O30">
+        <v>0.02120780341349541</v>
+      </c>
+      <c r="P30">
+        <v>0.02120780341349541</v>
+      </c>
+      <c r="Q30">
+        <v>0.004959395519777778</v>
+      </c>
+      <c r="R30">
+        <v>0.04463455967800001</v>
+      </c>
+      <c r="S30">
+        <v>0.0005235793302867992</v>
+      </c>
+      <c r="T30">
+        <v>0.0005235793302867992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.01327133333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.039814</v>
+      </c>
+      <c r="I31">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="J31">
+        <v>0.02468805090647077</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.896302666666666</v>
+      </c>
+      <c r="N31">
+        <v>5.688908</v>
+      </c>
+      <c r="O31">
+        <v>0.1076190506998728</v>
+      </c>
+      <c r="P31">
+        <v>0.1076190506998728</v>
+      </c>
+      <c r="Q31">
+        <v>0.02516646479022222</v>
+      </c>
+      <c r="R31">
+        <v>0.226498183112</v>
+      </c>
+      <c r="S31">
+        <v>0.002656904602184519</v>
+      </c>
+      <c r="T31">
+        <v>0.002656904602184519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.1504823333333333</v>
+      </c>
+      <c r="H32">
+        <v>0.451447</v>
+      </c>
+      <c r="I32">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="J32">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>9.406579333333333</v>
+      </c>
+      <c r="N32">
+        <v>28.219738</v>
+      </c>
+      <c r="O32">
+        <v>0.5338425959005011</v>
+      </c>
+      <c r="P32">
+        <v>0.5338425959005011</v>
+      </c>
+      <c r="Q32">
+        <v>1.415524006765111</v>
+      </c>
+      <c r="R32">
+        <v>12.739716060886</v>
+      </c>
+      <c r="S32">
+        <v>0.1494414205342857</v>
+      </c>
+      <c r="T32">
+        <v>0.1494414205342857</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.1504823333333333</v>
+      </c>
+      <c r="H33">
+        <v>0.451447</v>
+      </c>
+      <c r="I33">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="J33">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>5.394797999999999</v>
+      </c>
+      <c r="N33">
+        <v>16.184394</v>
+      </c>
+      <c r="O33">
+        <v>0.3061658086987375</v>
+      </c>
+      <c r="P33">
+        <v>0.3061658086987375</v>
+      </c>
+      <c r="Q33">
+        <v>0.8118217909019998</v>
+      </c>
+      <c r="R33">
+        <v>7.306396118117998</v>
+      </c>
+      <c r="S33">
+        <v>0.08570663660472576</v>
+      </c>
+      <c r="T33">
+        <v>0.08570663660472576</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.1504823333333333</v>
+      </c>
+      <c r="H34">
+        <v>0.451447</v>
+      </c>
+      <c r="I34">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="J34">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.08490933333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.254728</v>
+      </c>
+      <c r="O34">
+        <v>0.004818778146294018</v>
+      </c>
+      <c r="P34">
+        <v>0.004818778146294018</v>
+      </c>
+      <c r="Q34">
+        <v>0.01277735460177778</v>
+      </c>
+      <c r="R34">
+        <v>0.114996191416</v>
+      </c>
+      <c r="S34">
+        <v>0.001348946406584552</v>
+      </c>
+      <c r="T34">
+        <v>0.001348946406584552</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.1504823333333333</v>
+      </c>
+      <c r="H35">
+        <v>0.451447</v>
+      </c>
+      <c r="I35">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="J35">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.4642293333333333</v>
+      </c>
+      <c r="N35">
+        <v>1.392688</v>
+      </c>
+      <c r="O35">
+        <v>0.02634596314109922</v>
+      </c>
+      <c r="P35">
+        <v>0.02634596314109922</v>
+      </c>
+      <c r="Q35">
+        <v>0.06985831328177777</v>
+      </c>
+      <c r="R35">
+        <v>0.6287248195359999</v>
+      </c>
+      <c r="S35">
+        <v>0.007375166739005633</v>
+      </c>
+      <c r="T35">
+        <v>0.007375166739005632</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.1504823333333333</v>
+      </c>
+      <c r="H36">
+        <v>0.451447</v>
+      </c>
+      <c r="I36">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="J36">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.3736923333333333</v>
+      </c>
+      <c r="N36">
+        <v>1.121077</v>
+      </c>
+      <c r="O36">
+        <v>0.02120780341349541</v>
+      </c>
+      <c r="P36">
+        <v>0.02120780341349541</v>
+      </c>
+      <c r="Q36">
+        <v>0.05623409426877778</v>
+      </c>
+      <c r="R36">
+        <v>0.506106848419</v>
+      </c>
+      <c r="S36">
+        <v>0.005936814133721421</v>
+      </c>
+      <c r="T36">
+        <v>0.005936814133721421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.1504823333333333</v>
+      </c>
+      <c r="H37">
+        <v>0.451447</v>
+      </c>
+      <c r="I37">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="J37">
+        <v>0.2799353623743786</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.896302666666666</v>
+      </c>
+      <c r="N37">
+        <v>5.688908</v>
+      </c>
+      <c r="O37">
+        <v>0.1076190506998728</v>
+      </c>
+      <c r="P37">
+        <v>0.1076190506998728</v>
+      </c>
+      <c r="Q37">
+        <v>0.2853600499862222</v>
+      </c>
+      <c r="R37">
+        <v>2.568240449876</v>
+      </c>
+      <c r="S37">
+        <v>0.03012637795605552</v>
+      </c>
+      <c r="T37">
+        <v>0.03012637795605552</v>
       </c>
     </row>
   </sheetData>
